--- a/pandas_tips_tricks/awen_wala_data.xlsx
+++ b/pandas_tips_tricks/awen_wala_data.xlsx
@@ -26538,7 +26538,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>BALOCHISTAN</t>
+          <t>BA  LOCHISTAN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
